--- a/slide_analysis.xlsx
+++ b/slide_analysis.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="commits_per_year" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>commits</t>
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>these are taken from some previous analysis - not the streaming adopt code</t>
+  </si>
+  <si>
+    <t>commit_count</t>
+  </si>
+  <si>
+    <t>import_commit_count</t>
+  </si>
+  <si>
+    <t>num_users</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>data from commit_analysis.py, based on same logic as new_adopt.py</t>
   </si>
 </sst>
 </file>
@@ -1511,15 +1530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -1535,15 +1554,18 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1994</v>
       </c>
       <c r="B3">
         <v>13958</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -1551,7 +1573,7 @@
         <v>30126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v>37284</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>53766</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>73004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -1583,7 +1605,7 @@
         <v>62020</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1591,7 +1613,7 @@
         <v>120050</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -1599,7 +1621,7 @@
         <v>181902</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -1607,7 +1629,7 @@
         <v>187556</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -1615,7 +1637,7 @@
         <v>208286</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>234022</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>307315</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>521339</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -1738,4 +1760,401 @@
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1993</v>
+      </c>
+      <c r="B2">
+        <v>6936</v>
+      </c>
+      <c r="C2">
+        <v>1298</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1994</v>
+      </c>
+      <c r="B3">
+        <v>13958</v>
+      </c>
+      <c r="C3">
+        <v>2136</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1995</v>
+      </c>
+      <c r="B4">
+        <v>30126</v>
+      </c>
+      <c r="C4">
+        <v>3480</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1996</v>
+      </c>
+      <c r="B5">
+        <v>37284</v>
+      </c>
+      <c r="C5">
+        <v>3939</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1997</v>
+      </c>
+      <c r="B6">
+        <v>53766</v>
+      </c>
+      <c r="C6">
+        <v>4373</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1998</v>
+      </c>
+      <c r="B7">
+        <v>73004</v>
+      </c>
+      <c r="C7">
+        <v>6281</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1999</v>
+      </c>
+      <c r="B8">
+        <v>62020</v>
+      </c>
+      <c r="C8">
+        <v>5986</v>
+      </c>
+      <c r="D8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>120050</v>
+      </c>
+      <c r="C9">
+        <v>13277</v>
+      </c>
+      <c r="D9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2001</v>
+      </c>
+      <c r="B10">
+        <v>181902</v>
+      </c>
+      <c r="C10">
+        <v>20297</v>
+      </c>
+      <c r="D10">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2002</v>
+      </c>
+      <c r="B11">
+        <v>187556</v>
+      </c>
+      <c r="C11">
+        <v>21872</v>
+      </c>
+      <c r="D11">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2003</v>
+      </c>
+      <c r="B12">
+        <v>208286</v>
+      </c>
+      <c r="C12">
+        <v>30122</v>
+      </c>
+      <c r="D12">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13">
+        <v>234022</v>
+      </c>
+      <c r="C13">
+        <v>26965</v>
+      </c>
+      <c r="D13">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2005</v>
+      </c>
+      <c r="B14">
+        <v>307315</v>
+      </c>
+      <c r="C14">
+        <v>49380</v>
+      </c>
+      <c r="D14">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15">
+        <v>521339</v>
+      </c>
+      <c r="C15">
+        <v>86422</v>
+      </c>
+      <c r="D15">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2007</v>
+      </c>
+      <c r="B16">
+        <v>787204</v>
+      </c>
+      <c r="C16">
+        <v>114632</v>
+      </c>
+      <c r="D16">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17">
+        <v>1012142</v>
+      </c>
+      <c r="C17">
+        <v>150164</v>
+      </c>
+      <c r="D17">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2009</v>
+      </c>
+      <c r="B18">
+        <v>1262158</v>
+      </c>
+      <c r="C18">
+        <v>207409</v>
+      </c>
+      <c r="D18">
+        <v>10745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19">
+        <v>1848185</v>
+      </c>
+      <c r="C19">
+        <v>286452</v>
+      </c>
+      <c r="D19">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2011</v>
+      </c>
+      <c r="B20">
+        <v>2459750</v>
+      </c>
+      <c r="C20">
+        <v>360666</v>
+      </c>
+      <c r="D20">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21">
+        <v>3160030</v>
+      </c>
+      <c r="C21">
+        <v>458908</v>
+      </c>
+      <c r="D21">
+        <v>28743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22">
+        <v>3590287</v>
+      </c>
+      <c r="C22">
+        <v>549301</v>
+      </c>
+      <c r="D22">
+        <v>38643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23">
+        <v>3340657</v>
+      </c>
+      <c r="C23">
+        <v>516844</v>
+      </c>
+      <c r="D23">
+        <v>47132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24">
+        <v>3328950</v>
+      </c>
+      <c r="C24">
+        <v>501049</v>
+      </c>
+      <c r="D24">
+        <v>55210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>2901661</v>
+      </c>
+      <c r="C25">
+        <v>465892</v>
+      </c>
+      <c r="D25">
+        <v>59458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26">
+        <v>2986646</v>
+      </c>
+      <c r="C26">
+        <v>412787</v>
+      </c>
+      <c r="D26">
+        <v>59737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>28715234</v>
+      </c>
+      <c r="C28">
+        <v>4299932</v>
+      </c>
+      <c r="D28">
+        <v>160145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/slide_analysis.xlsx
+++ b/slide_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>commits</t>
   </si>
@@ -36,19 +36,16 @@
     <t>these are taken from some previous analysis - not the streaming adopt code</t>
   </si>
   <si>
-    <t>commit_count</t>
-  </si>
-  <si>
-    <t>import_commit_count</t>
-  </si>
-  <si>
-    <t>num_users</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>data from commit_analysis.py, based on same logic as new_adopt.py</t>
+  </si>
+  <si>
+    <t>Number of Commits</t>
+  </si>
+  <si>
+    <t>Number of Import Commits</t>
   </si>
 </sst>
 </file>
@@ -92,6 +89,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBFBFBF"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -147,7 +150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -442,7 +444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -560,7 +561,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -676,7 +676,1213 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Commits and Import Commits per Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Commits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>521339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>787204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1012142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1262158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1848185</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2459750</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3160030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3590287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3340657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3328950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2901661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2986646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ACB-43BD-B298-0A2A5CC150E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1298932288"/>
+        <c:axId val="1147748368"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Import Commits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>207409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>286452</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>458908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>549301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>516844</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>501049</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>465892</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>412787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ACB-43BD-B298-0A2A5CC150E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1214684144"/>
+        <c:axId val="1214689136"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Number of Import Commits</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>428</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>620</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>894</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1146</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1586</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2414</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3720</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6401</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>10745</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>15005</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20513</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>28743</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>38643</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>47132</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>55210</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>59458</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>59737</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3ACB-43BD-B298-0A2A5CC150E5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="1147748368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Commits</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298932288"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1298932288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147748368"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214689136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="710000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of Import Commits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214684144"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1214684144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214689136"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1232,6 +2438,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1246,6 +2968,41 @@
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1766,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,13 +3534,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1800,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2141,7 +3898,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>28715234</v>
@@ -2156,5 +3913,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>